--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample12/Sample-12.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample12/Sample-12.xlsx
@@ -177,14 +177,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="lrrtbgqk" xfId="1"/>
-    <cellStyle name="lrrtbgqk_Alternate" xfId="2"/>
-    <cellStyle name="pq23rhkj" xfId="3"/>
-    <cellStyle name="pq23rhkj_Alternate" xfId="4"/>
-    <cellStyle name="bszdkkx1" xfId="5"/>
-    <cellStyle name="bszdkkx1_Alternate" xfId="6"/>
-    <cellStyle name="mveghfr0" xfId="7"/>
-    <cellStyle name="mveghfr0_Alternate" xfId="8"/>
+    <cellStyle name="2tdxwbrg" xfId="1"/>
+    <cellStyle name="2tdxwbrg_Alternate" xfId="2"/>
+    <cellStyle name="gjquw1rs" xfId="3"/>
+    <cellStyle name="gjquw1rs_Alternate" xfId="4"/>
+    <cellStyle name="hk44v54j" xfId="5"/>
+    <cellStyle name="hk44v54j_Alternate" xfId="6"/>
+    <cellStyle name="0umsfyeq" xfId="7"/>
+    <cellStyle name="0umsfyeq_Alternate" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample12/Sample-12.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample12/Sample-12.xlsx
@@ -177,14 +177,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="2tdxwbrg" xfId="1"/>
-    <cellStyle name="2tdxwbrg_Alternate" xfId="2"/>
-    <cellStyle name="gjquw1rs" xfId="3"/>
-    <cellStyle name="gjquw1rs_Alternate" xfId="4"/>
-    <cellStyle name="hk44v54j" xfId="5"/>
-    <cellStyle name="hk44v54j_Alternate" xfId="6"/>
-    <cellStyle name="0umsfyeq" xfId="7"/>
-    <cellStyle name="0umsfyeq_Alternate" xfId="8"/>
+    <cellStyle name="wo4dsevf" xfId="1"/>
+    <cellStyle name="wo4dsevf_Alternate" xfId="2"/>
+    <cellStyle name="nbuxqej3" xfId="3"/>
+    <cellStyle name="nbuxqej3_Alternate" xfId="4"/>
+    <cellStyle name="sdzonzzd" xfId="5"/>
+    <cellStyle name="sdzonzzd_Alternate" xfId="6"/>
+    <cellStyle name="i13hkb0i" xfId="7"/>
+    <cellStyle name="i13hkb0i_Alternate" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
